--- a/data/trans_dic/P25A$rendimiento-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Habitat-trans_dic.xlsx
@@ -675,29 +675,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007442084659018011</v>
+        <v>0.007438175887367361</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03986893611688642</v>
+        <v>0.03888187927434037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03519090517765797</v>
+        <v>0.03464406190187891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02081740801730203</v>
+        <v>0.02111115199877915</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01195218820497858</v>
+        <v>0.0116603653688598</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0292197585336109</v>
+        <v>0.02673676472753985</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02846563726200736</v>
+        <v>0.02711520304197512</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06592680674259391</v>
+        <v>0.06418291435958917</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1154715093159795</v>
+        <v>0.1149338054158248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1414042141151214</v>
+        <v>0.1398292250861592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1885664292678285</v>
+        <v>0.1665574579747951</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.08843306032898002</v>
+        <v>0.1038303196433058</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06997510190112365</v>
+        <v>0.0691592036024687</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08588860980872308</v>
+        <v>0.08415081728216105</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1095561272833915</v>
+        <v>0.1034461227410249</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02233238915732513</v>
+        <v>0.02143927045975565</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004129263346794745</v>
+        <v>0.004222307509201837</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01131506611930436</v>
+        <v>0.01141707475640238</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02057252524254469</v>
+        <v>0.02125231951495578</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01068225672337722</v>
+        <v>0.01064716031259966</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01851373639732138</v>
+        <v>0.02220872234422149</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0122766005066101</v>
+        <v>0.01240991470366327</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01522627071501136</v>
+        <v>0.017985036878042</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08604947922151082</v>
+        <v>0.08319398087891609</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03798300225066482</v>
+        <v>0.03626719182759443</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07322375334247437</v>
+        <v>0.06895495053626269</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08943507744790184</v>
+        <v>0.06337572946838151</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1177953243882818</v>
+        <v>0.1290735865479331</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09996471588859356</v>
+        <v>0.09698316689000058</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06697631729801383</v>
+        <v>0.07092485416264883</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04917230641932534</v>
+        <v>0.04826385010301228</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06314345751455487</v>
+        <v>0.06801590956754121</v>
       </c>
     </row>
     <row r="10">
@@ -892,28 +892,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01137889105752786</v>
+        <v>0.01157079510349318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007709730762083242</v>
+        <v>0.01000169459981113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02271826724462384</v>
+        <v>0.02287368290832877</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009286389617658861</v>
+        <v>0.009281071182282609</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01363038000267322</v>
+        <v>0.01384311960585558</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01123639364440846</v>
+        <v>0.01082099035879061</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01159621357422203</v>
+        <v>0.01476920416856372</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01955210714387573</v>
+        <v>0.01948032430294546</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04660194746771948</v>
+        <v>0.05398386282164152</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06629242261226347</v>
+        <v>0.063921820896154</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.075845907825332</v>
+        <v>0.07584615958350638</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2037033568553018</v>
+        <v>0.2105665518120978</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08368467940630099</v>
+        <v>0.07876069621454827</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1273229856010236</v>
+        <v>0.1228583088579096</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07175497162281388</v>
+        <v>0.06826505038226656</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05539789280353098</v>
+        <v>0.05560757119254332</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07842414752512297</v>
+        <v>0.07962060272741776</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01465997925615219</v>
+        <v>0.0144909417728172</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01868165899452836</v>
+        <v>0.01992151302693666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03619854402920168</v>
+        <v>0.03637533160415692</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0208879361201182</v>
+        <v>0.02066849046876245</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00845971648163881</v>
+        <v>0.008382098966058536</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0260311046611423</v>
+        <v>0.02573333243762157</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02337752036458882</v>
+        <v>0.02236549918025757</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02052902291525106</v>
+        <v>0.02109363146248712</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03850905377636353</v>
+        <v>0.0376259025863892</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06502183278094774</v>
+        <v>0.06626460835452017</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08856778450726963</v>
+        <v>0.08495450568502851</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1100032328495904</v>
+        <v>0.1111828375539651</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1182703438390817</v>
+        <v>0.1196213378620921</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09882674556523879</v>
+        <v>0.09582146221380303</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1147340855042009</v>
+        <v>0.1147384263969254</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07423902365097693</v>
+        <v>0.07049279749021388</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06698940169406638</v>
+        <v>0.07088396749455148</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09426487719776161</v>
+        <v>0.09811447935491975</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02031758320505778</v>
+        <v>0.01966821497227282</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0338216377445566</v>
+        <v>0.03509895880268631</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01564914951025814</v>
+        <v>0.01657551846487611</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02984546885040462</v>
+        <v>0.02941134715494643</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02656607538460742</v>
+        <v>0.02683798294386944</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02653817855252924</v>
+        <v>0.02642032266392394</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03746892023641234</v>
+        <v>0.0365737268327407</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04721505152970952</v>
+        <v>0.04728025304612966</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06953077507145611</v>
+        <v>0.07294218304500849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05466674580952159</v>
+        <v>0.0580768784410002</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07506472886320655</v>
+        <v>0.07573568030737318</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0516434544043517</v>
+        <v>0.05147121480998889</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0485656747872707</v>
+        <v>0.04756860992195402</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0658044304539854</v>
+        <v>0.06693812984380643</v>
       </c>
     </row>
     <row r="19">
@@ -1398,26 +1398,26 @@
         <v>963</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7521</v>
+        <v>7335</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4160</v>
+        <v>4095</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7619</v>
+        <v>6971</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4896</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="7">
@@ -1428,29 +1428,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8533</v>
+        <v>8307</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21784</v>
+        <v>21683</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16715</v>
+        <v>16529</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7788</v>
+        <v>6879</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>4758</v>
+        <v>5587</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11947</v>
+        <v>11808</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22395</v>
+        <v>21942</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18845</v>
+        <v>17794</v>
       </c>
     </row>
     <row r="8">
@@ -1535,31 +1535,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4173</v>
+        <v>4006</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1027</v>
+        <v>1050</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2006</v>
+        <v>2024</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2023</v>
+        <v>2090</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4884</v>
+        <v>5858</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4260</v>
+        <v>4306</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4014</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="11">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16078</v>
+        <v>15545</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9446</v>
+        <v>9020</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12980</v>
+        <v>12223</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6881</v>
+        <v>4876</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11582</v>
+        <v>12691</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8630</v>
+        <v>8373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17667</v>
+        <v>18709</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17064</v>
+        <v>16748</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>16644</v>
+        <v>17929</v>
       </c>
     </row>
     <row r="12">
@@ -1682,28 +1682,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1961</v>
+        <v>1994</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1030</v>
+        <v>1336</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1955</v>
+        <v>1883</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3195</v>
+        <v>4069</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4069</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="15">
@@ -1714,31 +1714,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6259</v>
+        <v>7250</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11426</v>
+        <v>11017</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>10128</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8084</v>
+        <v>8356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8634</v>
+        <v>8126</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9493</v>
+        <v>9161</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12484</v>
+        <v>11877</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15264</v>
+        <v>15321</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16320</v>
+        <v>16569</v>
       </c>
     </row>
     <row r="16">
@@ -1823,31 +1823,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2551</v>
+        <v>2521</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3855</v>
+        <v>4111</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6389</v>
+        <v>6420</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1939</v>
+        <v>1918</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3153</v>
+        <v>3117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6237</v>
+        <v>5967</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6556</v>
+        <v>6736</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11460</v>
+        <v>11197</v>
       </c>
     </row>
     <row r="19">
@@ -1858,31 +1858,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11313</v>
+        <v>11529</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18278</v>
+        <v>17532</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19414</v>
+        <v>19622</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10977</v>
+        <v>11103</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11166</v>
+        <v>10826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13895</v>
+        <v>13896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19807</v>
+        <v>18808</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>21393</v>
+        <v>22637</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>28053</v>
+        <v>29199</v>
       </c>
     </row>
     <row r="20">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12690</v>
+        <v>12284</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20479</v>
+        <v>21252</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6049</v>
+        <v>6407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10022</v>
+        <v>9877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23253</v>
+        <v>23491</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>31916</v>
+        <v>31774</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>35270</v>
+        <v>34427</v>
       </c>
     </row>
     <row r="23">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29489</v>
+        <v>29530</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42101</v>
+        <v>44166</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21132</v>
+        <v>22450</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25207</v>
+        <v>25433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>45204</v>
+        <v>45053</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>58407</v>
+        <v>57208</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>61942</v>
+        <v>63009</v>
       </c>
     </row>
     <row r="24">
